--- a/data/option_data/call/ABMD.xlsx
+++ b/data/option_data/call/ABMD.xlsx
@@ -762,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="K5">
-        <v>0.7778342529296876</v>
+        <v>1.075627180480957</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>0.7465845654296875</v>
+        <v>1.032231401367188</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="K7">
-        <v>0.7475611181640626</v>
+        <v>1.00824470489502</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0.8120746331787108</v>
+        <v>0.9725344543457031</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
@@ -1092,19 +1092,19 @@
         <v>186.5</v>
       </c>
       <c r="G14">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>140</v>
       </c>
       <c r="I14">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0.6079140771484376</v>
+        <v>1E-05</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -1244,19 +1244,19 @@
         <v>171</v>
       </c>
       <c r="G18">
-        <v>163.5</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>160</v>
       </c>
       <c r="I18">
-        <v>172.5</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
       </c>
       <c r="K18">
-        <v>0.5526778131103516</v>
+        <v>1E-05</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
@@ -1294,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="K19">
-        <v>0.7003203796386719</v>
+        <v>0.8092975613403319</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -1332,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>0.6457249783325195</v>
+        <v>0.7546411254882812</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
@@ -1396,19 +1396,19 @@
         <v>183.5</v>
       </c>
       <c r="G22">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>180</v>
       </c>
       <c r="I22">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>10</v>
       </c>
       <c r="K22">
-        <v>0.5318650329589845</v>
+        <v>1E-05</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>0.6509739492797851</v>
+        <v>0.7379786944580078</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
@@ -1560,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="K26">
-        <v>0.6037332107543948</v>
+        <v>0.6854279504394531</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
@@ -1636,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="K28">
-        <v>0.5776104251098633</v>
+        <v>0.64628954788208</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <v>0.5528609167480469</v>
+        <v>0.6165199481201173</v>
       </c>
       <c r="L29" t="b">
         <v>1</v>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="K30">
-        <v>0.5712475736999512</v>
+        <v>0.6292761682128907</v>
       </c>
       <c r="L30" t="b">
         <v>1</v>
@@ -1750,7 +1750,7 @@
         <v>2</v>
       </c>
       <c r="K31">
-        <v>0.5668988623046876</v>
+        <v>0.6206397799682618</v>
       </c>
       <c r="L31" t="b">
         <v>1</v>
@@ -1776,19 +1776,19 @@
         <v>109.2</v>
       </c>
       <c r="G32">
-        <v>85.7</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>260</v>
       </c>
       <c r="I32">
-        <v>93.5</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32">
-        <v>0.5120288055419921</v>
+        <v>1E-05</v>
       </c>
       <c r="L32" t="b">
         <v>1</v>
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="K33">
-        <v>0.5391434025573731</v>
+        <v>0.5857890542602538</v>
       </c>
       <c r="L33" t="b">
         <v>1</v>
@@ -1852,19 +1852,19 @@
         <v>82.2</v>
       </c>
       <c r="G34">
-        <v>74.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>280</v>
       </c>
       <c r="I34">
-        <v>83.5</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34">
-        <v>0.5204973487854003</v>
+        <v>1E-05</v>
       </c>
       <c r="L34" t="b">
         <v>1</v>
@@ -1890,19 +1890,19 @@
         <v>78</v>
       </c>
       <c r="G35">
-        <v>68.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>290</v>
       </c>
       <c r="I35">
-        <v>77.8</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>0.5141039801025391</v>
+        <v>1E-05</v>
       </c>
       <c r="L35" t="b">
         <v>1</v>
@@ -1928,19 +1928,19 @@
         <v>86.03</v>
       </c>
       <c r="G36">
-        <v>63.4</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>300</v>
       </c>
       <c r="I36">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>5</v>
       </c>
       <c r="K36">
-        <v>0.5135394105529785</v>
+        <v>1E-05</v>
       </c>
       <c r="L36" t="b">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="K37">
-        <v>0.5217790742492676</v>
+        <v>0.5163164823913573</v>
       </c>
       <c r="L37" t="b">
         <v>1</v>
@@ -2004,22 +2004,22 @@
         <v>61.92</v>
       </c>
       <c r="G38">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>320</v>
       </c>
       <c r="I38">
-        <v>59.2</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>2</v>
       </c>
       <c r="K38">
-        <v>0.4709983320617676</v>
+        <v>0.0039162109375</v>
       </c>
       <c r="L38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2042,19 +2042,19 @@
         <v>57</v>
       </c>
       <c r="G39">
-        <v>52.6</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>330</v>
       </c>
       <c r="I39">
-        <v>57.4</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>0.4893544717407228</v>
+        <v>0.007822421875000001</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="K40">
-        <v>0.639926696472168</v>
+        <v>0.6735567312622072</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
@@ -2118,19 +2118,19 @@
         <v>48.5</v>
       </c>
       <c r="G41">
-        <v>40.1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>350</v>
       </c>
       <c r="I41">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>3</v>
       </c>
       <c r="K41">
-        <v>0.4804739453125</v>
+        <v>0.01563484375</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -2156,19 +2156,19 @@
         <v>54.8</v>
       </c>
       <c r="G42">
-        <v>36.7</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>360</v>
       </c>
       <c r="I42">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42">
-        <v>0.4861959339904785</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
@@ -2194,19 +2194,19 @@
         <v>51.75</v>
       </c>
       <c r="G43">
-        <v>33.9</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>370</v>
       </c>
       <c r="I43">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>5</v>
       </c>
       <c r="K43">
-        <v>0.4797262721252441</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -2232,19 +2232,19 @@
         <v>48</v>
       </c>
       <c r="G44">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>380</v>
       </c>
       <c r="I44">
-        <v>39.4</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="K44">
-        <v>0.4780630807495118</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -2270,19 +2270,19 @@
         <v>34.1</v>
       </c>
       <c r="G45">
-        <v>24.7</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>400</v>
       </c>
       <c r="I45">
-        <v>32.8</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45">
-        <v>0.4666343620300293</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -2308,19 +2308,19 @@
         <v>38.5</v>
       </c>
       <c r="G46">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>410</v>
       </c>
       <c r="I46">
-        <v>30.3</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="K46">
-        <v>0.4652153088378906</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>4</v>
       </c>
       <c r="K47">
-        <v>0.4769034243774414</v>
+        <v>0.4987537918090821</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         <v>32.3</v>
       </c>
       <c r="G48">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>430</v>
       </c>
       <c r="I48">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>30</v>
       </c>
       <c r="K48">
-        <v>0.4728904029846192</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>2</v>
       </c>
       <c r="K49">
-        <v>0.5079242323303224</v>
+        <v>0.5292863233947755</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -2457,22 +2457,22 @@
         <v>450</v>
       </c>
       <c r="F50">
-        <v>20.24</v>
+        <v>17.43</v>
       </c>
       <c r="G50">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>450</v>
       </c>
       <c r="I50">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K50">
-        <v>0.4787802366638184</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -2495,22 +2495,22 @@
         <v>460</v>
       </c>
       <c r="F51">
-        <v>18.72</v>
+        <v>15.7</v>
       </c>
       <c r="G51">
-        <v>15.9</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>460</v>
       </c>
       <c r="I51">
-        <v>23.7</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51">
-        <v>0.4912465426635743</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -2536,19 +2536,19 @@
         <v>17.5</v>
       </c>
       <c r="G52">
-        <v>14.1</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>470</v>
       </c>
       <c r="I52">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>5</v>
       </c>
       <c r="K52">
-        <v>0.4947102531433106</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L52" t="b">
         <v>0</v>
@@ -2574,19 +2574,19 @@
         <v>15.65</v>
       </c>
       <c r="G53">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>480</v>
       </c>
       <c r="I53">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>100</v>
       </c>
       <c r="K53">
-        <v>0.4750266120910644</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>18.6</v>
       </c>
       <c r="K54">
-        <v>0.4842886044311524</v>
+        <v>0.5024311231994629</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -2647,19 +2647,19 @@
         <v>12</v>
       </c>
       <c r="G55">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>500</v>
       </c>
       <c r="I55">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55">
-        <v>0.4909871458435059</v>
+        <v>0.12500875</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -2685,16 +2685,16 @@
         <v>25</v>
       </c>
       <c r="G56">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>520</v>
       </c>
       <c r="I56">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>0.4833120516967774</v>
+        <v>0.12500875</v>
       </c>
       <c r="L56" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         <v>9.5</v>
       </c>
       <c r="G57">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>540</v>
       </c>
       <c r="I57">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>20</v>
       </c>
       <c r="K57">
-        <v>0.4874013662719727</v>
+        <v>0.12500875</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>

--- a/data/option_data/call/ABMD.xlsx
+++ b/data/option_data/call/ABMD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="68">
   <si>
     <t>symbol</t>
   </si>
@@ -575,13 +575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,22 +601,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -642,19 +639,16 @@
         <v>65</v>
       </c>
       <c r="I2">
-        <v>213.5</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
         <v>1E-05</v>
       </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -680,19 +674,16 @@
         <v>80</v>
       </c>
       <c r="I3">
-        <v>212</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
         <v>1E-05</v>
       </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -718,19 +709,16 @@
         <v>85</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J4">
-        <v>30</v>
-      </c>
-      <c r="K4">
         <v>1E-05</v>
       </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -756,19 +744,16 @@
         <v>90</v>
       </c>
       <c r="I5">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>1.075627180480957</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.7277859252929688</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -794,19 +779,16 @@
         <v>95</v>
       </c>
       <c r="I6">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1.032231401367188</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.6986114123535156</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -832,19 +814,16 @@
         <v>100</v>
       </c>
       <c r="I7">
-        <v>230.5</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>1.00824470489502</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.7076445251464845</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -870,19 +849,16 @@
         <v>105</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="K8">
         <v>1E-05</v>
       </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -908,19 +884,16 @@
         <v>110</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
         <v>1E-05</v>
       </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -946,19 +919,16 @@
         <v>120</v>
       </c>
       <c r="I10">
-        <v>151.9</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
         <v>1E-05</v>
       </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -984,19 +954,16 @@
         <v>125</v>
       </c>
       <c r="I11">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0.9725344543457031</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.7951070294189453</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1022,19 +989,16 @@
         <v>130</v>
       </c>
       <c r="I12">
-        <v>175.5</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
         <v>1E-05</v>
       </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1060,19 +1024,16 @@
         <v>135</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
         <v>1E-05</v>
       </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1092,25 +1053,22 @@
         <v>186.5</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>181.5</v>
       </c>
       <c r="H14">
         <v>140</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1E-05</v>
-      </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.5653729986572267</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1136,19 +1094,16 @@
         <v>145</v>
       </c>
       <c r="I15">
-        <v>143.6</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
         <v>1E-05</v>
       </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1174,19 +1129,16 @@
         <v>150</v>
       </c>
       <c r="I16">
-        <v>162.9</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
         <v>1E-05</v>
       </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1212,19 +1164,16 @@
         <v>155</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
         <v>1E-05</v>
       </c>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1244,25 +1193,22 @@
         <v>171</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>163.5</v>
       </c>
       <c r="H18">
         <v>160</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>5</v>
-      </c>
-      <c r="K18">
-        <v>1E-05</v>
-      </c>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.5337571038818358</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1288,19 +1234,16 @@
         <v>165</v>
       </c>
       <c r="I19">
-        <v>175.5</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19">
-        <v>0.8092975613403319</v>
-      </c>
-      <c r="L19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.690005541381836</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1326,19 +1269,16 @@
         <v>170</v>
       </c>
       <c r="I20">
-        <v>168.7</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0.7546411254882812</v>
-      </c>
-      <c r="L20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.6350134155273439</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1364,19 +1304,16 @@
         <v>175</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
         <v>1E-05</v>
       </c>
-      <c r="L21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1396,25 +1333,22 @@
         <v>183.5</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="H22">
         <v>180</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J22">
-        <v>10</v>
-      </c>
-      <c r="K22">
-        <v>1E-05</v>
-      </c>
-      <c r="L22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.5163012237548827</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1440,19 +1374,16 @@
         <v>185</v>
       </c>
       <c r="I23">
-        <v>102.3</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
         <v>1E-05</v>
       </c>
-      <c r="L23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1478,19 +1409,16 @@
         <v>190</v>
       </c>
       <c r="I24">
-        <v>154.5</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0.7379786944580078</v>
-      </c>
-      <c r="L24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.6432835964965821</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1516,19 +1444,16 @@
         <v>195</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25">
         <v>1E-05</v>
       </c>
-      <c r="L25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1554,19 +1479,16 @@
         <v>200</v>
       </c>
       <c r="I26">
-        <v>144.5</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="K26">
-        <v>0.6854279504394531</v>
-      </c>
-      <c r="L26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>0.5964700997924804</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1592,19 +1514,16 @@
         <v>210</v>
       </c>
       <c r="I27">
-        <v>89.3</v>
+        <v>2</v>
       </c>
       <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27">
         <v>1E-05</v>
       </c>
-      <c r="L27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1630,19 +1549,16 @@
         <v>220</v>
       </c>
       <c r="I28">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>0.64628954788208</v>
-      </c>
-      <c r="L28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>0.5718731777954101</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1668,19 +1584,16 @@
         <v>230</v>
       </c>
       <c r="I29">
-        <v>119.6</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>0.6165199481201173</v>
-      </c>
-      <c r="L29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>0.5476424630737305</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1706,19 +1619,16 @@
         <v>240</v>
       </c>
       <c r="I30">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>0.6292761682128907</v>
-      </c>
-      <c r="L30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>0.5667767932128907</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1744,19 +1654,16 @@
         <v>250</v>
       </c>
       <c r="I31">
-        <v>107.6</v>
+        <v>2</v>
       </c>
       <c r="J31">
-        <v>2</v>
-      </c>
-      <c r="K31">
-        <v>0.6206397799682618</v>
-      </c>
-      <c r="L31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>0.56290109954834</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1776,25 +1683,22 @@
         <v>109.2</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>85.3</v>
       </c>
       <c r="H32">
         <v>260</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1E-05</v>
-      </c>
-      <c r="L32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>0.5000355172729493</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1820,19 +1724,16 @@
         <v>270</v>
       </c>
       <c r="I33">
-        <v>93.40000000000001</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>0.5857890542602538</v>
-      </c>
-      <c r="L33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>0.535862795715332</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1852,25 +1753,22 @@
         <v>82.2</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H34">
         <v>280</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>1E-05</v>
-      </c>
-      <c r="L34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>0.501683450012207</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1890,25 +1788,22 @@
         <v>78</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="H35">
         <v>290</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1E-05</v>
-      </c>
-      <c r="L35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>0.4952443054199219</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1928,25 +1823,22 @@
         <v>86.03</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="H36">
         <v>300</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J36">
-        <v>5</v>
-      </c>
-      <c r="K36">
-        <v>1E-05</v>
-      </c>
-      <c r="L36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>0.4806265316772461</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1972,19 +1864,16 @@
         <v>310</v>
       </c>
       <c r="I37">
-        <v>69.5</v>
+        <v>5</v>
       </c>
       <c r="J37">
-        <v>5</v>
-      </c>
-      <c r="K37">
-        <v>0.5163164823913573</v>
-      </c>
-      <c r="L37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>0.5196123478698729</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2004,25 +1893,22 @@
         <v>61.92</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="H38">
         <v>320</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38">
-        <v>2</v>
-      </c>
-      <c r="K38">
-        <v>0.0039162109375</v>
-      </c>
-      <c r="L38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>0.4781088566589356</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2042,25 +1928,22 @@
         <v>57</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="H39">
         <v>330</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>0.007822421875000001</v>
-      </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>0.4621483229064942</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2086,19 +1969,16 @@
         <v>340</v>
       </c>
       <c r="I40">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="J40">
-        <v>3</v>
-      </c>
-      <c r="K40">
-        <v>0.6735567312622072</v>
-      </c>
-      <c r="L40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>0.6384618673706054</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2118,25 +1998,22 @@
         <v>48.5</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>41.8</v>
       </c>
       <c r="H41">
         <v>350</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41">
-        <v>3</v>
-      </c>
-      <c r="K41">
-        <v>0.01563484375</v>
-      </c>
-      <c r="L41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>0.4797720480346679</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2156,25 +2033,22 @@
         <v>54.8</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>37.8</v>
       </c>
       <c r="H42">
         <v>360</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>0.461492201538086</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2194,25 +2068,22 @@
         <v>51.75</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="H43">
         <v>370</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J43">
-        <v>5</v>
-      </c>
-      <c r="K43">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>0.4680076393127441</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2232,25 +2103,22 @@
         <v>48</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>30.6</v>
       </c>
       <c r="H44">
         <v>380</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>0.4582573706054688</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2270,25 +2138,22 @@
         <v>34.1</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>23.9</v>
       </c>
       <c r="H45">
         <v>400</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>0.4557244369506837</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2308,25 +2173,22 @@
         <v>38.5</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="H46">
         <v>410</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>0.4567620242309571</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2352,19 +2214,16 @@
         <v>420</v>
       </c>
       <c r="I47">
-        <v>29.5</v>
+        <v>4</v>
       </c>
       <c r="J47">
-        <v>4</v>
-      </c>
-      <c r="K47">
-        <v>0.4987537918090821</v>
-      </c>
-      <c r="L47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>0.4761404925537109</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2384,25 +2243,22 @@
         <v>32.3</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H48">
         <v>430</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J48">
-        <v>30</v>
-      </c>
-      <c r="K48">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>0.4704642797851563</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2428,19 +2284,16 @@
         <v>440</v>
       </c>
       <c r="I49">
-        <v>29.1</v>
+        <v>2</v>
       </c>
       <c r="J49">
-        <v>2</v>
-      </c>
-      <c r="K49">
-        <v>0.5292863233947755</v>
-      </c>
-      <c r="L49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>0.5073291455078125</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2460,25 +2313,22 @@
         <v>17.43</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="H50">
         <v>450</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J50">
-        <v>13</v>
-      </c>
-      <c r="K50">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>0.4736991107177735</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2498,25 +2348,22 @@
         <v>15.7</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="H51">
         <v>460</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>0.4552361605834961</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2536,25 +2383,22 @@
         <v>17.5</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H52">
         <v>470</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J52">
-        <v>5</v>
-      </c>
-      <c r="K52">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>0.460866597442627</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2574,25 +2418,22 @@
         <v>15.65</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="H53">
         <v>480</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J53">
-        <v>100</v>
-      </c>
-      <c r="K53">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>0.4586846124267578</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2617,17 +2458,14 @@
       <c r="H54">
         <v>490</v>
       </c>
-      <c r="I54">
-        <v>18.6</v>
-      </c>
-      <c r="K54">
-        <v>0.5024311231994629</v>
-      </c>
-      <c r="L54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="J54">
+        <v>0.483952914428711</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2647,25 +2485,22 @@
         <v>12</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="H55">
         <v>500</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <v>0.12500875</v>
-      </c>
-      <c r="L55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>0.4571282315063477</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2685,22 +2520,19 @@
         <v>25</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="H56">
         <v>520</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0.12500875</v>
-      </c>
-      <c r="L56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="J56">
+        <v>0.4559380578613281</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2720,21 +2552,18 @@
         <v>9.5</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H57">
         <v>540</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J57">
-        <v>20</v>
-      </c>
-      <c r="K57">
-        <v>0.12500875</v>
-      </c>
-      <c r="L57" t="b">
+        <v>0.4595696133422852</v>
+      </c>
+      <c r="K57" t="b">
         <v>0</v>
       </c>
     </row>
